--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.29395</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>0.5018828485888889</v>
+        <v>0.4790638040388889</v>
       </c>
       <c r="R2">
-        <v>4.5169456373</v>
+        <v>4.31157423635</v>
       </c>
       <c r="S2">
-        <v>0.09590749833957241</v>
+        <v>0.03444374975953274</v>
       </c>
       <c r="T2">
-        <v>0.09590749833957241</v>
+        <v>0.03444374975953274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.29395</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
         <v>3.350293622588889</v>
       </c>
       <c r="R3">
-        <v>30.15264260330001</v>
+        <v>30.1526426033</v>
       </c>
       <c r="S3">
-        <v>0.6402256641145507</v>
+        <v>0.2408795533799974</v>
       </c>
       <c r="T3">
-        <v>0.6402256641145507</v>
+        <v>0.2408795533799973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.29395</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.05454487208333333</v>
+        <v>0.006298891244444444</v>
       </c>
       <c r="R4">
-        <v>0.49090384875</v>
+        <v>0.0566900212</v>
       </c>
       <c r="S4">
-        <v>0.01042327356567948</v>
+        <v>0.0004528779506133265</v>
       </c>
       <c r="T4">
-        <v>0.01042327356567948</v>
+        <v>0.0004528779506133264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.29395</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>1.1811669391</v>
+        <v>1.180984004216667</v>
       </c>
       <c r="R5">
-        <v>10.6305024519</v>
+        <v>10.62885603795</v>
       </c>
       <c r="S5">
-        <v>0.2257155560685144</v>
+        <v>0.08491043816774718</v>
       </c>
       <c r="T5">
-        <v>0.2257155560685144</v>
+        <v>0.08491043816774718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,970 @@
         <v>0.29395</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.315464</v>
+      </c>
+      <c r="O6">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P6">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q6">
+        <v>0.01030340475555556</v>
+      </c>
+      <c r="R6">
+        <v>0.0927306428</v>
+      </c>
+      <c r="S6">
+        <v>0.0007407946333652177</v>
+      </c>
+      <c r="T6">
+        <v>0.0007407946333652176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204631</v>
+      </c>
+      <c r="I7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.480867666666667</v>
-      </c>
-      <c r="N6">
-        <v>4.442603</v>
-      </c>
-      <c r="O6">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="P6">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="Q6">
-        <v>0.1451003502055555</v>
-      </c>
-      <c r="R6">
-        <v>1.30590315185</v>
-      </c>
-      <c r="S6">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="T6">
-        <v>0.02772800791168296</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.889237666666667</v>
+      </c>
+      <c r="N7">
+        <v>14.667713</v>
+      </c>
+      <c r="O7">
+        <v>0.09529921759032918</v>
+      </c>
+      <c r="P7">
+        <v>0.09529921759032917</v>
+      </c>
+      <c r="Q7">
+        <v>0.3334965309892223</v>
+      </c>
+      <c r="R7">
+        <v>3.001468778903</v>
+      </c>
+      <c r="S7">
+        <v>0.02397774777017502</v>
+      </c>
+      <c r="T7">
+        <v>0.02397774777017501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204631</v>
+      </c>
+      <c r="I8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N8">
+        <v>102.577454</v>
+      </c>
+      <c r="O8">
+        <v>0.6664673019309815</v>
+      </c>
+      <c r="P8">
+        <v>0.6664673019309812</v>
+      </c>
+      <c r="Q8">
+        <v>2.332280776608222</v>
+      </c>
+      <c r="R8">
+        <v>20.990526989474</v>
+      </c>
+      <c r="S8">
+        <v>0.1676864224790007</v>
+      </c>
+      <c r="T8">
+        <v>0.1676864224790006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204631</v>
+      </c>
+      <c r="I9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06428533333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.192856</v>
+      </c>
+      <c r="O9">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="P9">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="Q9">
+        <v>0.004384924015111111</v>
+      </c>
+      <c r="R9">
+        <v>0.039464316136</v>
+      </c>
+      <c r="S9">
+        <v>0.0003152674533490581</v>
+      </c>
+      <c r="T9">
+        <v>0.000315267453349058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.204631</v>
+      </c>
+      <c r="I10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.052907</v>
+      </c>
+      <c r="N10">
+        <v>36.158721</v>
+      </c>
+      <c r="O10">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="P10">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="Q10">
+        <v>0.8221328041056666</v>
+      </c>
+      <c r="R10">
+        <v>7.399195236951</v>
+      </c>
+      <c r="S10">
+        <v>0.05910973931860614</v>
+      </c>
+      <c r="T10">
+        <v>0.05910973931860614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.204631</v>
+      </c>
+      <c r="I11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.315464</v>
+      </c>
+      <c r="O11">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P11">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q11">
+        <v>0.007172634864888889</v>
+      </c>
+      <c r="R11">
+        <v>0.064553713784</v>
+      </c>
+      <c r="S11">
+        <v>0.000515698406600299</v>
+      </c>
+      <c r="T11">
+        <v>0.0005156984066002989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.035101</v>
+      </c>
+      <c r="H12">
+        <v>0.105303</v>
+      </c>
+      <c r="I12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.889237666666667</v>
+      </c>
+      <c r="N12">
+        <v>14.667713</v>
+      </c>
+      <c r="O12">
+        <v>0.09529921759032918</v>
+      </c>
+      <c r="P12">
+        <v>0.09529921759032917</v>
+      </c>
+      <c r="Q12">
+        <v>0.1716171313376667</v>
+      </c>
+      <c r="R12">
+        <v>1.544554182039</v>
+      </c>
+      <c r="S12">
+        <v>0.01233893580856635</v>
+      </c>
+      <c r="T12">
+        <v>0.01233893580856634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.035101</v>
+      </c>
+      <c r="H13">
+        <v>0.105303</v>
+      </c>
+      <c r="I13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N13">
+        <v>102.577454</v>
+      </c>
+      <c r="O13">
+        <v>0.6664673019309815</v>
+      </c>
+      <c r="P13">
+        <v>0.6664673019309812</v>
+      </c>
+      <c r="Q13">
+        <v>1.200190404284667</v>
+      </c>
+      <c r="R13">
+        <v>10.801713638562</v>
+      </c>
+      <c r="S13">
+        <v>0.08629134073677111</v>
+      </c>
+      <c r="T13">
+        <v>0.08629134073677105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.035101</v>
+      </c>
+      <c r="H14">
+        <v>0.105303</v>
+      </c>
+      <c r="I14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06428533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.192856</v>
+      </c>
+      <c r="O14">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="P14">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="Q14">
+        <v>0.002256479485333333</v>
+      </c>
+      <c r="R14">
+        <v>0.020308315368</v>
+      </c>
+      <c r="S14">
+        <v>0.0001622364580147479</v>
+      </c>
+      <c r="T14">
+        <v>0.0001622364580147478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.035101</v>
+      </c>
+      <c r="H15">
+        <v>0.105303</v>
+      </c>
+      <c r="I15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.052907</v>
+      </c>
+      <c r="N15">
+        <v>36.158721</v>
+      </c>
+      <c r="O15">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="P15">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="Q15">
+        <v>0.423069088607</v>
+      </c>
+      <c r="R15">
+        <v>3.807621797463</v>
+      </c>
+      <c r="S15">
+        <v>0.03041783932770295</v>
+      </c>
+      <c r="T15">
+        <v>0.03041783932770295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.035101</v>
+      </c>
+      <c r="H16">
+        <v>0.105303</v>
+      </c>
+      <c r="I16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.315464</v>
+      </c>
+      <c r="O16">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P16">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q16">
+        <v>0.003691033954666667</v>
+      </c>
+      <c r="R16">
+        <v>0.033219305592</v>
+      </c>
+      <c r="S16">
+        <v>0.0002653781162689489</v>
+      </c>
+      <c r="T16">
+        <v>0.0002653781162689488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.209419</v>
+      </c>
+      <c r="I17">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J17">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.889237666666667</v>
+      </c>
+      <c r="N17">
+        <v>14.667713</v>
+      </c>
+      <c r="O17">
+        <v>0.09529921759032918</v>
+      </c>
+      <c r="P17">
+        <v>0.09529921759032917</v>
+      </c>
+      <c r="Q17">
+        <v>0.3412997543052222</v>
+      </c>
+      <c r="R17">
+        <v>3.071697788747</v>
+      </c>
+      <c r="S17">
+        <v>0.02453878425205508</v>
+      </c>
+      <c r="T17">
+        <v>0.02453878425205507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.209419</v>
+      </c>
+      <c r="I18">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J18">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N18">
+        <v>102.577454</v>
+      </c>
+      <c r="O18">
+        <v>0.6664673019309815</v>
+      </c>
+      <c r="P18">
+        <v>0.6664673019309812</v>
+      </c>
+      <c r="Q18">
+        <v>2.386851982136222</v>
+      </c>
+      <c r="R18">
+        <v>21.481667839226</v>
+      </c>
+      <c r="S18">
+        <v>0.1716099853352124</v>
+      </c>
+      <c r="T18">
+        <v>0.1716099853352123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.209419</v>
+      </c>
+      <c r="I19">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J19">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06428533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.192856</v>
+      </c>
+      <c r="O19">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="P19">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="Q19">
+        <v>0.004487523407111111</v>
+      </c>
+      <c r="R19">
+        <v>0.040387710664</v>
+      </c>
+      <c r="S19">
+        <v>0.0003226441487990891</v>
+      </c>
+      <c r="T19">
+        <v>0.000322644148799089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.209419</v>
+      </c>
+      <c r="I20">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J20">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.052907</v>
+      </c>
+      <c r="N20">
+        <v>36.158721</v>
+      </c>
+      <c r="O20">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="P20">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="Q20">
+        <v>0.8413692436776666</v>
+      </c>
+      <c r="R20">
+        <v>7.572323193099</v>
+      </c>
+      <c r="S20">
+        <v>0.06049280166916635</v>
+      </c>
+      <c r="T20">
+        <v>0.06049280166916634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.209419</v>
+      </c>
+      <c r="I21">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J21">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.315464</v>
+      </c>
+      <c r="O21">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P21">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q21">
+        <v>0.007340461712888889</v>
+      </c>
+      <c r="R21">
+        <v>0.066064155416</v>
+      </c>
+      <c r="S21">
+        <v>0.000527764828456236</v>
+      </c>
+      <c r="T21">
+        <v>0.0005277648284562357</v>
       </c>
     </row>
   </sheetData>
